--- a/experimental-data/tecan-data/3May2023/pfu_3May2023.xlsx
+++ b/experimental-data/tecan-data/3May2023/pfu_3May2023.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Host-Ecology-and-Host-Range/experimental-data/tecan-data/3May2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77AB8903-9A9F-AF46-8395-66A9315988E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD639D55-302C-CB4A-8A25-93B42C9DBAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" xr2:uid="{66853041-B95B-A64B-A10F-5DA71C103404}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207C3C08-0951-6B43-8CC2-000D8C9B65FB}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63:K65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,16 +700,25 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I2" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J2" s="1" t="e">
+      <c r="J2" s="1">
         <f>AVERAGE(E2:G2)/(H2*I2)</f>
-        <v>#DIV/0!</v>
+        <v>10000</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="1" t="s">
@@ -729,16 +738,24 @@
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
       <c r="I3" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J3" s="1" t="e">
+      <c r="J3" s="1">
         <f t="shared" ref="J3:J65" si="0">AVERAGE(E3:G3)/(H3*I3)</f>
-        <v>#DIV/0!</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="1" t="s">
@@ -758,16 +775,25 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I4" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J4" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="1" t="s">
@@ -787,16 +813,24 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="1" t="s">
@@ -816,16 +850,24 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
       <c r="I6" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>25</v>
@@ -847,16 +889,24 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
       <c r="I7" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>26</v>
@@ -878,16 +928,24 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
@@ -909,16 +967,25 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I9" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>333333333.33333331</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>29</v>
@@ -940,16 +1007,25 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>2166666666.6666665</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>30</v>
@@ -971,16 +1047,25 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>3833333333.333333</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>31</v>
@@ -1002,16 +1087,25 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <f>10^-5</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="I12" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>33333333.333333332</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>33</v>
@@ -1033,16 +1127,24 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
       <c r="I13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>34</v>
@@ -1064,16 +1166,24 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
       <c r="I14" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>35</v>
@@ -1095,16 +1205,25 @@
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I15" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>37</v>
@@ -1126,16 +1245,25 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I16" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>38</v>
@@ -1157,16 +1285,25 @@
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I17" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>3166666.6666666665</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>39</v>
@@ -1188,16 +1325,25 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I18" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>833333.33333333337</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>40</v>
@@ -1219,16 +1365,25 @@
       <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I19" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>41</v>
@@ -1250,16 +1405,25 @@
       <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I20" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>3833333.3333333335</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>42</v>
@@ -1281,16 +1445,25 @@
       <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I21" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>333333.33333333331</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>50</v>
@@ -1312,16 +1485,25 @@
       <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I22" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>51</v>
@@ -1343,16 +1525,25 @@
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I23" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>52</v>
@@ -1374,16 +1565,24 @@
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
       <c r="I24" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>53</v>
@@ -1405,16 +1604,24 @@
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
       <c r="I25" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>54</v>
@@ -1436,16 +1643,24 @@
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
       <c r="I26" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J26" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>55</v>
@@ -1467,16 +1682,25 @@
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I27" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>53</v>
@@ -1498,16 +1722,25 @@
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I28" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J28" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>1166666.6666666667</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>54</v>
@@ -1529,16 +1762,25 @@
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I29" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J29" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>55</v>
@@ -1560,16 +1802,25 @@
       <c r="D30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I30" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J30" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>4333333333.333333</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>56</v>
@@ -1591,16 +1842,25 @@
       <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="E31" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I31" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J31" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>7500000000</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>57</v>
@@ -1622,16 +1882,25 @@
       <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I32" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J32" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>499999999.99999994</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>58</v>
@@ -1653,16 +1922,25 @@
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I33" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J33" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>56</v>
@@ -1684,16 +1962,25 @@
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I34" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J34" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>3333333.3333333335</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>57</v>
@@ -1715,16 +2002,25 @@
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I35" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J35" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>58</v>
@@ -1746,16 +2042,24 @@
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
       <c r="I36" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J36" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>59</v>
@@ -1777,16 +2081,24 @@
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
       <c r="I37" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J37" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>60</v>
@@ -1808,16 +2120,24 @@
       <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
       <c r="I38" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J38" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>61</v>
@@ -1839,16 +2159,25 @@
       <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I39" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J39" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>59</v>
@@ -1870,16 +2199,25 @@
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I40" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J40" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>1166666.6666666667</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>60</v>
@@ -1901,16 +2239,25 @@
       <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="I41" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J41" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>1666666.6666666667</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>61</v>
@@ -1932,16 +2279,24 @@
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
       <c r="I42" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J42" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>62</v>
@@ -1963,16 +2318,24 @@
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
       <c r="I43" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J43" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>63</v>
@@ -1994,16 +2357,24 @@
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
       <c r="I44" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J44" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>64</v>
@@ -2025,16 +2396,25 @@
       <c r="D45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I45" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J45" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J45" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>65</v>
@@ -2056,16 +2436,25 @@
       <c r="D46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I46" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J46" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J46" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>66</v>
@@ -2087,16 +2476,25 @@
       <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I47" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J47" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J47" s="1">
+        <f t="shared" si="0"/>
+        <v>8333.3333333333339</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>67</v>
@@ -2118,16 +2516,24 @@
       <c r="D48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
       <c r="I48" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J48" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>68</v>
@@ -2149,16 +2555,24 @@
       <c r="D49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
       <c r="I49" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J49" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>69</v>
@@ -2180,16 +2594,24 @@
       <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
       <c r="I50" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J50" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>70</v>
@@ -2211,16 +2633,25 @@
       <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I51" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J51" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J51" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>68</v>
@@ -2242,16 +2673,25 @@
       <c r="D52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I52" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J52" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J52" s="1">
+        <f t="shared" si="0"/>
+        <v>3333.333333333333</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>69</v>
@@ -2273,16 +2713,25 @@
       <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I53" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J53" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J53" s="1">
+        <f t="shared" si="0"/>
+        <v>6666.6666666666661</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>70</v>
@@ -2304,16 +2753,24 @@
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
       <c r="I54" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J54" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>71</v>
@@ -2335,16 +2792,24 @@
       <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
       <c r="I55" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J55" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>72</v>
@@ -2366,16 +2831,24 @@
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
       <c r="I56" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J56" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>73</v>
@@ -2397,16 +2870,25 @@
       <c r="D57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2</v>
+      </c>
+      <c r="H57" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I57" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J57" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J57" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>74</v>
@@ -2428,16 +2910,25 @@
       <c r="D58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I58" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J58" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>6666.6666666666661</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>75</v>
@@ -2459,16 +2950,25 @@
       <c r="D59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+      <c r="H59" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I59" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J59" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>76</v>
@@ -2490,16 +2990,24 @@
       <c r="D60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
       <c r="I60" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J60" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>77</v>
@@ -2521,16 +3029,24 @@
       <c r="D61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
       <c r="I61" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J61" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>78</v>
@@ -2552,16 +3068,24 @@
       <c r="D62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
       <c r="I62" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J62" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>79</v>
@@ -2583,16 +3107,25 @@
       <c r="D63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I63" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J63" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J63" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>77</v>
@@ -2614,16 +3147,25 @@
       <c r="D64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I64" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J64" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J64" s="1">
+        <f t="shared" si="0"/>
+        <v>6666.6666666666661</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>78</v>
@@ -2645,16 +3187,25 @@
       <c r="D65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="I65" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J65" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J65" s="1">
+        <f t="shared" si="0"/>
+        <v>6666.6666666666661</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>79</v>
